--- a/biology/Botanique/Anomoeoneidaceae/Anomoeoneidaceae.xlsx
+++ b/biology/Botanique/Anomoeoneidaceae/Anomoeoneidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Anomoeoneidaceae sont une famille de diatomées de l’ordre des Cymbellales. 
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Anomoeoneis dérivé des mots grecs ανομοε / anomoe, « non semblable ; non de même espèce », et νειός / neiós, jeune. 
 </t>
@@ -542,19 +556,21 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (6 août 2017)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (6 août 2017) :
 Adlafia (en) Gerd Moser, Lange-Bertalot &amp; Metzeltin
 Anomoeoneis (en) Pfitzer
 Dickieia Berkeley ex Kützing
 Pauliella F.E.Round &amp; Basson
 Staurophora Mereschkowsky
-Selon Catalogue of Life                                   (6 août 2017)[2] et ITIS      (6 août 2017)[3] :
+Selon Catalogue of Life                                   (6 août 2017) et ITIS      (6 août 2017) :
 Anomoeoneis Pfitzer
 Dickieia Berkeley ex Kützing
 Staurophora Mersechkowsky
-Selon World Register of Marine Species                               (6 août 2017)[4] :
+Selon World Register of Marine Species                               (6 août 2017) :
 Anomoeoneis E. Pfitzer, 1871
 Staurophora C. Mereschkowsky, 1903</t>
         </is>
